--- a/src/test/resources/data/TestData.xlsx
+++ b/src/test/resources/data/TestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DAE118-47BE-435D-9F0D-1DE91E340EE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98323AF0-005E-DA40-8B30-5A0FDE6BD288}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fahrenheit" sheetId="6" r:id="rId1"/>
@@ -69,7 +69,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>1581</t>
+    <t>6809424</t>
   </si>
 </sst>
 </file>
@@ -405,13 +405,13 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -419,7 +419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -427,7 +427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -448,16 +448,16 @@
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -474,7 +474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -504,16 +504,16 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -521,7 +521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
